--- a/biology/Zoologie/Craugastor_taurus/Craugastor_taurus.xlsx
+++ b/biology/Zoologie/Craugastor_taurus/Craugastor_taurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Craugastor taurus est une espèce d'amphibiens de la famille des Craugastoridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Craugastor taurus est une espèce d'amphibiens de la famille des Craugastoridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre entre 25 et 525 m d'altitude autour du golfe Dulce au Costa Rica et au Panama[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre entre 25 et 525 m d'altitude autour du golfe Dulce au Costa Rica et au Panama.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 41 à 42 mm et les femelles de 43 à 76 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 41 à 42 mm et les femelles de 43 à 76 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Menaces et protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce était abondante par le passé, mais qui n'est plus observé à partir des années 2000, à l'exception d'un individu unique en 2001[3]. En décembre 2014, une équipe d'herpétologistes Costa-ricains annoncent leur redécouverte de l'espèce dès décembre 2011[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce était abondante par le passé, mais qui n'est plus observé à partir des années 2000, à l'exception d'un individu unique en 2001. En décembre 2014, une équipe d'herpétologistes Costa-ricains annoncent leur redécouverte de l'espèce dès décembre 2011.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Taylor, 1958 : Additions to the known herpetological fauna of Costa Rica with comments on other species. The University of Kansas Science Bulletin, vol. 39, no 1, p. 1-40 (texte intégral).</t>
         </is>
